--- a/model/outputData/50_kW_1200_AggDmd/50kW_p_xfmr.xlsx
+++ b/model/outputData/50_kW_1200_AggDmd/50kW_p_xfmr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Base Case</t>
   </si>
@@ -39,7 +39,10 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>Threshold</t>
+    <t>50kVA Limit</t>
+  </si>
+  <si>
+    <t>75kVA Limit</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +92,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,8 +147,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -345,7 +349,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -546,8 +552,11 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -747,7 +756,10 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -948,8 +960,12 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1141,16 +1157,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Threshold</c:v>
+                  <c:v>50kVA Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="6350" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1330,6 +1347,208 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0052-43C7-962A-59387BD427D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75kVA Limit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5A5-4154-B557-3D17F9EB7964}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1352,20 +1571,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1373,7 +1578,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1403,7 +1608,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1417,17 +1622,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1438,7 +1640,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1462,20 +1664,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1483,7 +1671,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1513,7 +1701,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1527,17 +1715,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1548,7 +1733,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1567,14 +1752,33 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3497743922491403E-2"/>
+          <c:y val="0.85579817448192108"/>
+          <c:w val="0.92903279446574161"/>
+          <c:h val="0.12032122850315352"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1588,7 +1792,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1625,7 +1829,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1100">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -1639,7 +1843,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2204,16 +2408,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2498,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2714,7 @@
     <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2532,8 +2736,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -2553,10 +2760,15 @@
         <v>100.43027130838701</v>
       </c>
       <c r="H2" s="2">
+        <f>50*1.3</f>
         <v>65</v>
       </c>
+      <c r="I2" s="2">
+        <f>75*1.3</f>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2576,10 +2788,15 @@
         <v>82.879288150672195</v>
       </c>
       <c r="H3" s="2">
+        <f t="shared" ref="H3:I26" si="0">50*1.3</f>
         <v>65</v>
       </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I26" si="1">75*1.3</f>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2599,10 +2816,15 @@
         <v>61.086202622908999</v>
       </c>
       <c r="H4" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I4" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2622,10 +2844,15 @@
         <v>45.2898375920647</v>
       </c>
       <c r="H5" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2645,10 +2872,15 @@
         <v>33.705565804608597</v>
       </c>
       <c r="H6" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2668,10 +2900,15 @@
         <v>26.293730856582201</v>
       </c>
       <c r="H7" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2691,10 +2928,15 @@
         <v>16.894342084615399</v>
       </c>
       <c r="H8" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2714,10 +2956,15 @@
         <v>8.0333571144907001</v>
       </c>
       <c r="H9" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2737,10 +2984,15 @@
         <v>-0.65493001528593697</v>
       </c>
       <c r="H10" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2760,10 +3012,15 @@
         <v>-5.4271754587910399</v>
       </c>
       <c r="H11" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2783,10 +3040,15 @@
         <v>-6.9868101325239804</v>
       </c>
       <c r="H12" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2806,10 +3068,15 @@
         <v>-7.4182895652777097</v>
       </c>
       <c r="H13" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2829,10 +3096,15 @@
         <v>0.27293116319948901</v>
       </c>
       <c r="H14" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2852,10 +3124,15 @@
         <v>12.063164241060701</v>
       </c>
       <c r="H15" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2875,10 +3152,15 @@
         <v>18.899896435047001</v>
       </c>
       <c r="H16" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2898,10 +3180,15 @@
         <v>30.755460733687698</v>
       </c>
       <c r="H17" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2921,10 +3208,15 @@
         <v>48.817111179108103</v>
       </c>
       <c r="H18" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2944,10 +3236,15 @@
         <v>75.901871253180801</v>
       </c>
       <c r="H19" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2967,10 +3264,15 @@
         <v>103.09090003097</v>
       </c>
       <c r="H20" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2990,10 +3292,15 @@
         <v>118.50187791992199</v>
       </c>
       <c r="H21" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -3013,10 +3320,15 @@
         <v>125.91388387551299</v>
       </c>
       <c r="H22" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
@@ -3036,10 +3348,15 @@
         <v>125.64370026592999</v>
       </c>
       <c r="H23" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
@@ -3059,10 +3376,15 @@
         <v>121.627680975213</v>
       </c>
       <c r="H24" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
@@ -3082,10 +3404,15 @@
         <v>107.49472855694501</v>
       </c>
       <c r="H25" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
@@ -3105,7 +3432,12 @@
         <v>100.43027130838701</v>
       </c>
       <c r="H26" s="2">
+        <f t="shared" si="0"/>
         <v>65</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
       </c>
     </row>
   </sheetData>
